--- a/Document/Protect_Question.xlsx
+++ b/Document/Protect_Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyvu\OneDrive\Documents\GitHub\CHS-HEATMAP-CAPSTONE\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC10488291D849EA5BDE58E5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FE10CF6D-7B1A-49B1-98DA-01CD35C96289}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC10488291D849EA5BDE58E5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{12EA02E7-886B-44C7-BD1C-F28D9D0FC278}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tại sao phải sử dụng web này?</t>
     <phoneticPr fontId="1"/>
@@ -55,6 +55,38 @@
   </si>
   <si>
     <t>Điểm tệ trong dịch vụ này là gì ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tại sao dùng heatmap trong các cửa hàng bán lẻ và dựa vào dữ liệu nào để vẽ lên ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heatmap là gì ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Đang sử dụng không gian 2D hay 3D ? Có chỉnh xác không ? Có tin tưởng được hay không ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dữ liệu thu thập trên camera là dữ liệu 2D nên em xử lý trên ảnh 2D nên ko mổ tả đc phạm vi 3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Đề cập đến điểm lấy trong detect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tại sao lại lấy điểm dưới chán ? Chụp hình (hikvision)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nguyên lý giải màu heatmap tăng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thời gian lấy lý tưởng</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.45"/>
@@ -444,6 +476,44 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
